--- a/rep_measurements.xlsx
+++ b/rep_measurements.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
   <si>
     <t>cpu utilisation</t>
   </si>
@@ -49,14 +49,187 @@
   </si>
   <si>
     <t>C1D1E1F1G1A1B1</t>
+  </si>
+  <si>
+    <t>length of various code parts</t>
+  </si>
+  <si>
+    <t>state_interrupt_speed + setting motor output</t>
+  </si>
+  <si>
+    <t>45us</t>
+  </si>
+  <si>
+    <t>state_interrupt + setting motor output</t>
+  </si>
+  <si>
+    <t>59us</t>
+  </si>
+  <si>
+    <t>5.2us</t>
+  </si>
+  <si>
+    <t>7us</t>
+  </si>
+  <si>
+    <t>time to trigger interrupt from I2 fall</t>
+  </si>
+  <si>
+    <t>time to trigger interrupt from I2 rise</t>
+  </si>
+  <si>
+    <t>6.4us</t>
+  </si>
+  <si>
+    <t>4.9us</t>
+  </si>
+  <si>
+    <t>time to trigger interrupt from I3 rise</t>
+  </si>
+  <si>
+    <t>time to trigger interrupt from I3 fall</t>
+  </si>
+  <si>
+    <t>5us</t>
+  </si>
+  <si>
+    <t>7.2us</t>
+  </si>
+  <si>
+    <t>time to trigger interrupt from I1 rise</t>
+  </si>
+  <si>
+    <t>time to trigger interrupt from I1 fall</t>
+  </si>
+  <si>
+    <t>DELAY TO L1L</t>
+  </si>
+  <si>
+    <t>I1 R</t>
+  </si>
+  <si>
+    <t>I1 F</t>
+  </si>
+  <si>
+    <t>I2 R</t>
+  </si>
+  <si>
+    <t>I2 F</t>
+  </si>
+  <si>
+    <t>I3R</t>
+  </si>
+  <si>
+    <t>I3 F</t>
+  </si>
+  <si>
+    <t>DELAY TO L1H</t>
+  </si>
+  <si>
+    <t>DELAY TO L2H</t>
+  </si>
+  <si>
+    <t>DELAY TO L3L</t>
+  </si>
+  <si>
+    <t>DELAY TO L3H</t>
+  </si>
+  <si>
+    <t>ALL AT V-120 TO AVOID PWM ON TRANSISTORS</t>
+  </si>
+  <si>
+    <t>DELAY TO L2L</t>
+  </si>
+  <si>
+    <t>86us</t>
+  </si>
+  <si>
+    <t>134us</t>
+  </si>
+  <si>
+    <t>42.4us</t>
+  </si>
+  <si>
+    <t>89us</t>
+  </si>
+  <si>
+    <t>151us</t>
+  </si>
+  <si>
+    <t>56.8us</t>
+  </si>
+  <si>
+    <t>26.4us</t>
+  </si>
+  <si>
+    <t>112us</t>
+  </si>
+  <si>
+    <t>76us</t>
+  </si>
+  <si>
+    <t>all very long and very peculiar</t>
+  </si>
+  <si>
+    <t>playNotes()</t>
+  </si>
+  <si>
+    <t>38.8us</t>
+  </si>
+  <si>
+    <t>VPID()</t>
+  </si>
+  <si>
+    <t>V20</t>
+  </si>
+  <si>
+    <t>10.4us</t>
+  </si>
+  <si>
+    <t>PPID()</t>
+  </si>
+  <si>
+    <t>4.5us</t>
+  </si>
+  <si>
+    <t>R50V10</t>
+  </si>
+  <si>
+    <t>RV</t>
+  </si>
+  <si>
+    <t>R20V10</t>
+  </si>
+  <si>
+    <t>R500V40</t>
+  </si>
+  <si>
+    <t>fixedSpeedRev</t>
+  </si>
+  <si>
+    <t>2.3us</t>
+  </si>
+  <si>
+    <t>C1D1E1F1G1A1B1B#1</t>
+  </si>
+  <si>
+    <t>74us</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -72,7 +245,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -80,12 +253,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -413,7 +600,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -452,7 +639,7 @@
         <v>50</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -501,7 +688,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>100</v>
@@ -512,16 +699,371 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>999</v>
       </c>
       <c r="C12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3">
+        <v>-5</v>
+      </c>
+      <c r="C13" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E53" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>